--- a/Assets/Game/Editor/XLS_Config/GameSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/GameSetting.xlsx
@@ -14,33 +14,23 @@
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>帧率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否运行引导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <t>v</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="14"/>
@@ -50,7 +40,7 @@
       </rPr>
       <t>alueT</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="14"/>
@@ -60,72 +50,34 @@
       </rPr>
       <t>ype</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>值类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>resolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetFrameRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRunGuide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分辨率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <t>1920</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
@@ -134,7 +86,7 @@
       </rPr>
       <t>,</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
@@ -144,7 +96,31 @@
       </rPr>
       <t>1080</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2</t>
+  </si>
+  <si>
+    <t>分辨率</t>
+  </si>
+  <si>
+    <t>targetFrameRate</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>帧率</t>
+  </si>
+  <si>
+    <t>isRunGuide</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>是否运行引导</t>
   </si>
 </sst>
 </file>
@@ -154,37 +130,17 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,14 +148,12 @@
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,41 +193,51 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="0" builtinId="27"/>
+    <cellStyle name="常规" xfId="1" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -578,94 +542,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="17.25" customWidth="1" style="3"/>
+    <col min="2" max="2" bestFit="1" width="16.125" customWidth="1" style="3"/>
+    <col min="3" max="3" bestFit="1" width="23.75" customWidth="1" style="3"/>
+    <col min="4" max="4" bestFit="1" width="16.125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="35.25" customHeight="1" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" ht="33.75" customHeight="1" s="7" customFormat="1">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" s="8" customFormat="1">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +640,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Game/Editor/XLS_Config/GameSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/GameSetting.xlsx
@@ -5,21 +5,21 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StrayFogUnity3d\Assets\Game\Editor\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityFramework\StrayFogUnity3d\Assets\Game\Editor\XLS_Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -27,10 +27,10 @@
     <t>value</t>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <t>v</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="14"/>
@@ -40,7 +40,7 @@
       </rPr>
       <t>alueT</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="14"/>
@@ -50,7 +50,7 @@
       </rPr>
       <t>ype</t>
     </r>
-    <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
@@ -74,10 +74,10 @@
     <t>resolution</t>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <t>1920</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
@@ -86,7 +86,7 @@
       </rPr>
       <t>,</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
@@ -96,7 +96,7 @@
       </rPr>
       <t>1080</t>
     </r>
-    <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vector2</t>
@@ -130,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -141,6 +141,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,13 +149,35 @@
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -193,51 +216,42 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="差" xfId="0" builtinId="27"/>
-    <cellStyle name="常规" xfId="1" builtinId="0"/>
+    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -537,98 +551,98 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="17.25" customWidth="1" style="3"/>
-    <col min="2" max="2" bestFit="1" width="16.125" customWidth="1" style="3"/>
-    <col min="3" max="3" bestFit="1" width="23.75" customWidth="1" style="3"/>
-    <col min="4" max="4" bestFit="1" width="16.125" customWidth="1" style="3"/>
+    <col min="1" max="1" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="33.75" customHeight="1" s="7" customFormat="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="18.75" s="8" customFormat="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>60</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -641,7 +655,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>